--- a/Profile_Specimen.xls.xlsx
+++ b/Profile_Specimen.xls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\137291\Desktop\FHIR-Translator\FHIR\new ons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\137291\Desktop\FHIR-Translator\FHIR\new ons\latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="161">
   <si>
     <t>FIELDS FROM FHIR Resource</t>
   </si>
@@ -170,9 +170,6 @@
     <t xml:space="preserve">        Specimen.container.additive[x]</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>ORC? OBR-2/3?</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
   </si>
   <si>
     <t>SPM.8 + SPM.9</t>
-  </si>
-  <si>
-    <t>SPM.Source Site || SPM.Source Sitemodifier</t>
   </si>
   <si>
     <t>SPM.Additives</t>
@@ -275,6 +269,246 @@
     <t>SAC.Container Height + SAC.Container Diameter +
 SAC.Container Height/Diameter/Delta Units ||
 SAC.Container Height/Diameter/Delta Units + SAC.Container Volume</t>
+  </si>
+  <si>
+    <t>SPM.Source Site + SPM.Source Sitemodifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Specimen.accessionIdentifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Specimen.accessionIdentifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.subject.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.subject.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.subject.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.subject.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.subject.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.subject.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.subject.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.subject.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Specimen.subject.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Specimen.subject.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.subject.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.parent.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.parent.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.parent.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.parent.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.parent.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.parent.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.parent.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Specimen.parent.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Specimen.parent.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.parent.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.parent.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.request.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.request.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.request.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.request.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.request.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.request.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.request.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Specimen.request.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Specimen.request.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Specimen.request.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.request.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Specimen.collection.collector.reference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Specimen.collection.collector.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Specimen.collection.collector.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Specimen.collection.collector.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Specimen.collection.collector.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Specimen.collection.collector.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Specimen.collection.collector.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Specimen.collection.collector.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Specimen.collection.collector.identifier.period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Specimen.collection.collector.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Specimen.collection.collector.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Specimen.processing.additive.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Specimen.processing.additive.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Specimen.processing.additive.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Specimen.processing.additive.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Specimen.processing.additive.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Specimen.processing.additive.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Specimen.processing.additive.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Specimen.processing.additive.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               Specimen.processing.additive.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               Specimen.processing.additive.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Specimen.processing.additive.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Specimen.container.additive[x].additiveCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Specimen.container.additive[x].additiveReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Specimen.container.additive[x].additiveCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Specimen.container.additive[x].additiveCodeableConcept.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Specimen.container.additive[x].additiveReference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Specimen.container.additive[x].additiveReference.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Specimen.container.additive[x].additiveReference.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Specimen.container.additive[x].additiveReference.identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Specimen.container.additive[x].additiveReference.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Specimen.container.additive[x].additiveReference.identifier.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Specimen.container.additive[x].additiveReference.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Specimen.container.additive[x].additiveReference.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  Specimen.container.additive[x].additiveReference.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  Specimen.container.additive[x].additiveReference.identifier.period.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Specimen.container.additive[x].additiveReference.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.Type.coding.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.Type.coding.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.Type.coding.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.Type.coding.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Specimen.Type.coding.userSelected</t>
   </si>
 </sst>
 </file>
@@ -304,7 +538,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,8 +575,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -386,19 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -415,11 +642,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -431,17 +655,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,12 +682,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,15 +965,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.1796875" customWidth="1"/>
+    <col min="1" max="1" width="80.81640625" customWidth="1"/>
     <col min="2" max="2" width="27.453125" customWidth="1"/>
     <col min="3" max="3" width="37.81640625" customWidth="1"/>
     <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
@@ -754,551 +981,1203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="22"/>
+      <c r="A10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="A18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="8"/>
+      <c r="A19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="A34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="A37" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>76</v>
-      </c>
+      <c r="A39" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>82</v>
-      </c>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="A41" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+      <c r="B106" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="7"/>
+      <c r="B122" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D122" s="15"/>
+      <c r="E122" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
